--- a/SubRES_TMPL/SubRES_TRA_BEL.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_BEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBEA8F0B-C03D-4CF3-81A4-5EA7EA685553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EB647A-7A55-4A02-B511-33F5CD1D1DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="311">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -4761,37 +4761,22 @@
     <t>PJ/ton</t>
   </si>
   <si>
-    <t>EXP_ELC_NL</t>
-  </si>
-  <si>
     <t>TRANS_LINE_NL</t>
   </si>
   <si>
-    <t>EXP_H2_NL</t>
-  </si>
-  <si>
     <t>h2_pipe_NL</t>
   </si>
   <si>
     <t>h2_ship_NL</t>
   </si>
   <si>
-    <t>EXP_AMM_NL</t>
-  </si>
-  <si>
     <t>nh3_pipe_NL</t>
   </si>
   <si>
     <t>nh3_ship_NL</t>
   </si>
   <si>
-    <t>EXP_METH_NL</t>
-  </si>
-  <si>
     <t>METH_ship_NL</t>
-  </si>
-  <si>
-    <t>EXP_KRE_NL</t>
   </si>
   <si>
     <t>KRE_ship_NL</t>
@@ -6036,7 +6021,7 @@
   </sheetPr>
   <dimension ref="D2:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F46" zoomScale="47" workbookViewId="0">
+    <sheetView topLeftCell="F46" zoomScale="47" workbookViewId="0">
       <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
@@ -6838,7 +6823,7 @@
     </row>
     <row r="37" spans="5:18" ht="18" x14ac:dyDescent="0.35">
       <c r="E37" s="97" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F37" s="97"/>
       <c r="G37" s="97">
@@ -6887,7 +6872,7 @@
         <v>288</v>
       </c>
       <c r="G39" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="O39">
         <v>360</v>
@@ -8125,8 +8110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8346,7 +8331,7 @@
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D11" s="80" t="s">
         <v>274</v>
@@ -8356,7 +8341,7 @@
         <v>275</v>
       </c>
       <c r="G11" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H11" s="80"/>
       <c r="I11" s="80">
@@ -8443,7 +8428,7 @@
         <v>275</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I13" s="72">
         <v>2030</v>
@@ -8521,7 +8506,7 @@
         <v>275</v>
       </c>
       <c r="G15" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I15">
         <v>2050</v>
@@ -8550,7 +8535,7 @@
         <v>241</v>
       </c>
       <c r="Z15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AA15" t="s">
         <v>274</v>
@@ -8565,7 +8550,7 @@
         <v>182</v>
       </c>
       <c r="AE15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AF15" t="s">
         <v>242</v>
@@ -12668,8 +12653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="F1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12888,7 +12873,7 @@
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" t="s">
         <v>245</v>
@@ -12897,7 +12882,7 @@
         <v>246</v>
       </c>
       <c r="G11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -13071,7 +13056,7 @@
         <v>241</v>
       </c>
       <c r="Z15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AA15" t="s">
         <v>245</v>
@@ -13086,7 +13071,7 @@
         <v>182</v>
       </c>
       <c r="AE15" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="AF15" s="78" t="s">
         <v>242</v>
@@ -17493,7 +17478,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17714,16 +17699,16 @@
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D11" t="s">
         <v>248</v>
       </c>
       <c r="F11" s="98" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -17872,17 +17857,17 @@
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D14" s="80" t="s">
         <v>249</v>
       </c>
       <c r="E14" s="80"/>
       <c r="F14" s="98" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="80">
@@ -17958,7 +17943,7 @@
         <v>241</v>
       </c>
       <c r="Z15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AA15" t="s">
         <v>248</v>
@@ -17973,7 +17958,7 @@
         <v>182</v>
       </c>
       <c r="AE15" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AF15" s="78" t="s">
         <v>242</v>
@@ -18009,7 +17994,7 @@
         <v>241</v>
       </c>
       <c r="Z16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AA16" t="s">
         <v>249</v>
@@ -18024,7 +18009,7 @@
         <v>182</v>
       </c>
       <c r="AE16" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AF16" t="s">
         <v>242</v>
@@ -21557,7 +21542,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView topLeftCell="B9" zoomScale="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21781,7 +21766,7 @@
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D11" t="s">
         <v>260</v>
@@ -21790,7 +21775,7 @@
         <v>262</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I11">
         <v>2020</v>
@@ -21939,7 +21924,7 @@
     </row>
     <row r="14" spans="3:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D14" s="80" t="s">
         <v>261</v>
@@ -21949,7 +21934,7 @@
         <v>262</v>
       </c>
       <c r="G14" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H14" s="80"/>
       <c r="I14" s="80">
@@ -22023,7 +22008,7 @@
         <v>241</v>
       </c>
       <c r="Z15" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AA15" t="s">
         <v>260</v>
@@ -22038,7 +22023,7 @@
         <v>182</v>
       </c>
       <c r="AE15" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AF15" s="78" t="s">
         <v>242</v>
@@ -22073,7 +22058,7 @@
         <v>241</v>
       </c>
       <c r="Z16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AA16" t="s">
         <v>261</v>
@@ -22088,7 +22073,7 @@
         <v>182</v>
       </c>
       <c r="AE16" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AF16" t="s">
         <v>242</v>
@@ -24425,7 +24410,7 @@
   <dimension ref="C3:AF18"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24649,7 +24634,7 @@
     </row>
     <row r="11" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D11" t="s">
         <v>269</v>
@@ -24658,7 +24643,7 @@
         <v>276</v>
       </c>
       <c r="G11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I11" s="80">
         <v>2020</v>
@@ -24823,7 +24808,7 @@
         <v>241</v>
       </c>
       <c r="Z15" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AA15" t="s">
         <v>269</v>
@@ -24838,7 +24823,7 @@
         <v>182</v>
       </c>
       <c r="AE15" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AF15" t="s">
         <v>242</v>

--- a/SubRES_TMPL/SubRES_TRA_BEL.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_BEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D6A40B-AEAB-4D3E-AD22-93F83B813379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7CFB24-BD70-4DFE-9569-ED634DA68581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -4271,7 +4271,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -4493,6 +4493,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -7214,7 +7215,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q12" sqref="Q12:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7466,14 +7467,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="80">
-        <f>('JET FUEL'!$J$18+'JET FUEL'!$J$20)*4/365</f>
-        <v>0.19913367662113918</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11" s="80">
-        <f>'JET FUEL'!$J$19*4/365</f>
-        <v>1.0835332077466361E-3</v>
-      </c>
-      <c r="S11" s="80"/>
+        <f>'JET FUEL'!J19</f>
+        <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S11" s="80">
+        <f>'JET FUEL'!J18</f>
+        <v>18.136342649856541</v>
+      </c>
       <c r="T11" s="82"/>
       <c r="Y11" s="67" t="s">
         <v>224</v>
@@ -7498,6 +7501,7 @@
         <f>'JET FUEL'!T27</f>
         <v>3.9865178986517904E-4</v>
       </c>
+      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
       <c r="Y12" s="69" t="s">
         <v>225</v>
@@ -7543,13 +7547,16 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <f>('JET FUEL'!$J$18+'JET FUEL'!$J$20)*4/365</f>
-        <v>0.19913367662113918</v>
+      <c r="Q13" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
-        <f>'JET FUEL'!$J$19*4/365</f>
-        <v>1.0835332077466361E-3</v>
+        <f>R11</f>
+        <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S13">
+        <f>S11</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="T13" s="76"/>
       <c r="Y13" s="70" t="s">
@@ -7588,6 +7595,7 @@
         <f>L12</f>
         <v>3.9865178986517904E-4</v>
       </c>
+      <c r="Q14" s="101"/>
       <c r="Y14" s="70" t="s">
         <v>238</v>
       </c>
@@ -7618,13 +7626,16 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <f>('JET FUEL'!$J$18+'JET FUEL'!$J$20)*4/365</f>
-        <v>0.19913367662113918</v>
+      <c r="Q15" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
-        <f>'JET FUEL'!$J$19*4/365</f>
-        <v>1.0835332077466361E-3</v>
+        <f>R11</f>
+        <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S15">
+        <f>S11</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="Y15" t="s">
         <v>239</v>
@@ -7662,6 +7673,7 @@
         <f>L14</f>
         <v>3.9865178986517904E-4</v>
       </c>
+      <c r="Q16" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16585,7 +16597,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17035,14 +17047,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'H2'!M20</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'H2'!N21</f>
         <v>0.44311627746107951</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'H2'!M20</f>
+        <v>124.07255768910225</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -17075,12 +17089,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>Q14</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>R14</f>
         <v>0.44311627746107951</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>124.07255768910225</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -17114,12 +17131,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>'H2'!N20</f>
-        <v>88.623255492215904</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.44311627746107951</v>
+      </c>
+      <c r="S18">
+        <f>'H2'!N20</f>
+        <v>88.623255492215904</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -20673,7 +20693,7 @@
   <dimension ref="C2:AF19"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21120,14 +21140,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'NH3'!M11</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'NH3'!M12</f>
         <v>0.51123688365384623</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'NH3'!M11</f>
+        <v>105.70687448860785</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -21159,12 +21181,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>Q14</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>R14</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -21198,12 +21223,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>Q16</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S18">
+        <f>S16</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -23563,7 +23591,7 @@
   <dimension ref="C2:AF20"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23882,15 +23910,17 @@
       <c r="P11" s="80">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <f>METHANOL!I18</f>
-        <v>39.212826970469628</v>
+      <c r="Q11" s="80">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11">
         <f>METHANOL!I19</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S11" s="76"/>
+      <c r="S11">
+        <f>METHANOL!I18</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T11" s="82"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
@@ -23905,7 +23935,7 @@
         <v>8.6193032185433139E-4</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="S12" s="76"/>
+      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
@@ -23922,15 +23952,17 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <f>Q11</f>
-        <v>39.212826970469628</v>
+      <c r="Q13" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13">
+        <f>S11</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
@@ -23947,7 +23979,7 @@
       </c>
       <c r="O14" s="77"/>
       <c r="P14" s="79"/>
-      <c r="S14" s="76"/>
+      <c r="Q14" s="101"/>
       <c r="T14" s="76"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -23963,15 +23995,17 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <f>Q13</f>
-        <v>39.212826970469628</v>
+      <c r="Q15" s="101">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
         <f>R13</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15">
+        <f>S13</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
@@ -23985,6 +24019,7 @@
         <f>L14</f>
         <v>8.6193032185433139E-4</v>
       </c>
+      <c r="Q16" s="101"/>
     </row>
     <row r="20" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O20" s="77"/>

--- a/SubRES_TMPL/SubRES_TRA_BEL.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_BEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7CFB24-BD70-4DFE-9569-ED634DA68581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D98C87-2C23-4121-A7E1-0B118D267924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -4271,7 +4271,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -4493,7 +4493,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -7214,7 +7213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12:Q16"/>
     </sheetView>
   </sheetViews>
@@ -7501,7 +7500,6 @@
         <f>'JET FUEL'!T27</f>
         <v>3.9865178986517904E-4</v>
       </c>
-      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
       <c r="Y12" s="69" t="s">
         <v>225</v>
@@ -7547,7 +7545,7 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13" s="101">
+      <c r="Q13">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
@@ -7595,7 +7593,6 @@
         <f>L12</f>
         <v>3.9865178986517904E-4</v>
       </c>
-      <c r="Q14" s="101"/>
       <c r="Y14" s="70" t="s">
         <v>238</v>
       </c>
@@ -7626,7 +7623,7 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15" s="101">
+      <c r="Q15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
@@ -7673,7 +7670,6 @@
         <f>L14</f>
         <v>3.9865178986517904E-4</v>
       </c>
-      <c r="Q16" s="101"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20692,8 +20688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB904E-BBCD-45B2-9EDC-CF511B90CE44}">
   <dimension ref="C2:AF19"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21261,7 +21257,7 @@
   <dimension ref="B2:U125"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23935,7 +23931,6 @@
         <v>8.6193032185433139E-4</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="Q12" s="101"/>
       <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
@@ -23952,7 +23947,7 @@
       <c r="P13" s="79">
         <v>1</v>
       </c>
-      <c r="Q13" s="101">
+      <c r="Q13">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
@@ -23979,7 +23974,6 @@
       </c>
       <c r="O14" s="77"/>
       <c r="P14" s="79"/>
-      <c r="Q14" s="101"/>
       <c r="T14" s="76"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -23995,7 +23989,7 @@
       <c r="P15" s="79">
         <v>1</v>
       </c>
-      <c r="Q15" s="101">
+      <c r="Q15">
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
@@ -24019,7 +24013,6 @@
         <f>L14</f>
         <v>8.6193032185433139E-4</v>
       </c>
-      <c r="Q16" s="101"/>
     </row>
     <row r="20" spans="15:16" x14ac:dyDescent="0.3">
       <c r="O20" s="77"/>

--- a/SubRES_TMPL/SubRES_TRA_BEL.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_BEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D98C87-2C23-4121-A7E1-0B118D267924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691E3BE-EB6E-41B6-8B4D-9B3044D256CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -11756,8 +11756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58317BE-2B49-4D94-8D23-F69EEBB61B78}">
   <dimension ref="C3:AF26"/>
   <sheetViews>
-    <sheetView zoomScale="78" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12015,9 +12015,7 @@
         <f>'Transmission lines'!G8*'Transmission lines'!O38</f>
         <v>9.1705160316910241</v>
       </c>
-      <c r="T11" s="76">
-        <v>1.5</v>
-      </c>
+      <c r="T11" s="76"/>
       <c r="Y11" s="67" t="s">
         <v>224</v>
       </c>
@@ -12055,9 +12053,7 @@
         <f>'Transmission lines'!Q38</f>
         <v>9.6151530862687125</v>
       </c>
-      <c r="T12" s="76">
-        <v>1.5</v>
-      </c>
+      <c r="T12" s="76"/>
       <c r="Y12" s="69" t="s">
         <v>225</v>
       </c>
@@ -12107,9 +12103,6 @@
       <c r="R13">
         <f>'Transmission lines'!R38</f>
         <v>10.081348590733008</v>
-      </c>
-      <c r="T13">
-        <v>1.5</v>
       </c>
       <c r="Y13" s="70" t="s">
         <v>231</v>
@@ -16593,7 +16586,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16948,9 +16941,7 @@
         <f>'H2'!$F$68</f>
         <v>0.12494629436500002</v>
       </c>
-      <c r="T11" s="76">
-        <v>1</v>
-      </c>
+      <c r="T11" s="76"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I12" s="72">
@@ -16977,9 +16968,7 @@
         <f>'H2'!$F$68</f>
         <v>0.12494629436500002</v>
       </c>
-      <c r="T12" s="76">
-        <v>1</v>
-      </c>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I13">
@@ -17005,9 +16994,7 @@
         <f>'H2'!$F$68</f>
         <v>0.12494629436500002</v>
       </c>
-      <c r="T13" s="76">
-        <v>1</v>
-      </c>
+      <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -20688,8 +20675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AB904E-BBCD-45B2-9EDC-CF511B90CE44}">
   <dimension ref="C2:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21041,9 +21028,7 @@
         <f>'NH3'!$D$63</f>
         <v>4.9978517746000005E-2</v>
       </c>
-      <c r="T11" s="76">
-        <v>1</v>
-      </c>
+      <c r="T11" s="76"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I12" s="72">
@@ -21070,9 +21055,7 @@
         <f>'NH3'!$D$63</f>
         <v>4.9978517746000005E-2</v>
       </c>
-      <c r="T12" s="76">
-        <v>1</v>
-      </c>
+      <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="I13">
@@ -21098,9 +21081,7 @@
         <f>'NH3'!$D$63</f>
         <v>4.9978517746000005E-2</v>
       </c>
-      <c r="T13" s="76">
-        <v>1</v>
-      </c>
+      <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
